--- a/Tests/Varying_the_number_of_contexts/allContexts.xlsx
+++ b/Tests/Varying_the_number_of_contexts/allContexts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dead1401\PycharmProjects\SGAC\Tests\Varying_the_number_of_contexts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB44F737-0A86-4ECB-9B49-4DF19DE7298F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325E8A80-0B1B-4F18-BE67-0B1FC2807661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,20 +111,88 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of contexts VS Solving time </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ProB</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ProB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -135,7 +203,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$4</c:f>
               <c:numCache>
@@ -152,8 +220,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$4</c:f>
               <c:numCache>
@@ -170,11 +238,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C108-4D49-B8AD-CA3A4F7D5599}"/>
+              <c16:uniqueId val="{00000000-1221-432C-A01D-572B8663FCB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -182,10 +250,18 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Z3</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Z3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -196,7 +272,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$4</c:f>
               <c:numCache>
@@ -213,8 +289,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$4</c:f>
               <c:numCache>
@@ -231,11 +307,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C108-4D49-B8AD-CA3A4F7D5599}"/>
+              <c16:uniqueId val="{00000001-1221-432C-A01D-572B8663FCB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -243,10 +319,18 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Alloy</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alloy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -257,7 +341,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$4</c:f>
               <c:numCache>
@@ -274,8 +358,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$D$2:$D$4</c:f>
               <c:numCache>
@@ -292,11 +376,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C108-4D49-B8AD-CA3A4F7D5599}"/>
+              <c16:uniqueId val="{00000002-1221-432C-A01D-572B8663FCB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -308,17 +392,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1500639520"/>
-        <c:axId val="1391219776"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1500639520"/>
+        <c:axId val="849759519"/>
+        <c:axId val="587292239"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="849759519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -340,15 +437,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Contexts</a:t>
+                  <a:t>Number of Contexts</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -391,8 +480,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -419,15 +508,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1391219776"/>
+        <c:crossAx val="587292239"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1391219776"/>
+        <c:axId val="587292239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,13 +554,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Solving</a:t>
+                  <a:t>Solving Time (seconds)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Time (seconds)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -513,8 +594,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -538,9 +625,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1500639520"/>
+        <c:crossAx val="849759519"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -552,7 +639,17 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2384440069991251"/>
+          <c:y val="0.23950131233595801"/>
+          <c:w val="0.1337782152230971"/>
+          <c:h val="0.23437664041994752"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -583,13 +680,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -666,7 +756,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -693,8 +783,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -774,11 +864,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -789,11 +874,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -805,7 +885,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -825,9 +905,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -840,10 +917,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -883,22 +960,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1003,8 +1081,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1136,19 +1214,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1162,6 +1241,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1185,23 +1275,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD97724-82A2-4958-B722-AD2F3C9F0F1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1A74AA-6D2C-494F-8BA5-75FC277060C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1488,7 +1578,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
